--- a/DB/Excel2.xlsx
+++ b/DB/Excel2.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="8640" yWindow="2130" windowWidth="11715" windowHeight="8970" activeTab="1"/>
+    <workbookView xWindow="8640" yWindow="2130" windowWidth="11715" windowHeight="8970"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Main" sheetId="2" r:id="rId2"/>
+    <sheet name="Main" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -28,24 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>One</t>
-  </si>
-  <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>S.No</t>
   </si>
   <si>
     <t>Price</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>26.00</t>
-  </si>
-  <si>
     <t>https://www.nseindia.com/live_market/dynaContent/live_watch/get_quote/GetQuoteFO.jsp?underlying=SUNPHARMA&amp;instrument=OPTSTK&amp;strike=380.00&amp;type=PE&amp;expiry=25JUL2019</t>
   </si>
   <si>
@@ -56,6 +43,18 @@
   </si>
   <si>
     <t>https://www.nseindia.com/live_market/dynaContent/live_watch/get_quote/GetQuoteFO.jsp?underlying=ZEEL&amp;instrument=OPTSTK&amp;strike=300.00&amp;type=PE&amp;expiry=25JUL2019</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>3.75</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>4.60</t>
   </si>
 </sst>
 </file>
@@ -400,7 +399,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,56 +424,34 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2">
-        <v>121</v>
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
